--- a/asset/sample/Ingredient_Upload.xlsx
+++ b/asset/sample/Ingredient_Upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0 Business\0 Software Development\0 Development\XXX iRestora\0 iRestora Update 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Ingredient Bulk Upload</t>
   </si>
@@ -47,13 +47,19 @@
     <t>Catetory *</t>
   </si>
   <si>
-    <t>Unit *</t>
-  </si>
-  <si>
     <t>Alert Quantity/Amount *</t>
   </si>
   <si>
     <t>Purchase Price *</t>
+  </si>
+  <si>
+    <t>Cunsumption Unit *</t>
+  </si>
+  <si>
+    <t>Conversion Rate*</t>
+  </si>
+  <si>
+    <t>Purcahse Unit*</t>
   </si>
   <si>
     <r>
@@ -81,8 +87,18 @@
 - Enter maximum 50 rows at a time, if you need to upload more than 50, fill the file again and upload again
 - You don’t need to add Category and Unit separately from web interface, you just enter those here, system will check if it is not remaining in DB, system will insert that by itself
 - Be careful with any name spelling
+- for Conversion Rate: How many Consumption Unit is equal for 1 Purchase Unit, eg-you purchase a 1 pen box and 1 box contains 12 pcs pen so Conversion Rate will 12 that's means    you will sale in pcs. 
 - Do not use nothing than a number in Purchase Price and Alert Quantity/Amount</t>
     </r>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Bold Pen</t>
+  </si>
+  <si>
+    <t>Pen</t>
   </si>
 </sst>
 </file>
@@ -441,23 +457,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="3" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,18 +483,22 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,16 +509,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -508,19 +535,51 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>99</v>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
